--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E144DF-B7C8-448C-AEDA-CB4164FAC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C09483-845B-4C34-83AE-E5A3859E01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -853,14 +853,20 @@
       <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>5</v>
+      </c>
       <c r="N8" s="7">
         <f>SUM(D8:M8)</f>
-        <v>19.799999999999997</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.8">
@@ -888,14 +894,20 @@
       <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
       <c r="N9" s="7">
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
-        <v>45.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.8">
@@ -923,14 +935,20 @@
       <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6">
+        <v>5</v>
+      </c>
       <c r="N10" s="7">
         <f t="shared" si="0"/>
-        <v>34.650000000000006</v>
+        <v>49.650000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.8">
@@ -958,14 +976,20 @@
       <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
       <c r="N11" s="7">
         <f t="shared" si="0"/>
-        <v>37.1</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.8">
@@ -993,14 +1017,20 @@
       <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>5</v>
+      </c>
       <c r="N12" s="7">
         <f t="shared" si="0"/>
-        <v>32.1</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.8">
@@ -1022,7 +1052,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8">
         <f>AVERAGE(N8:N12)</f>
-        <v>33.83</v>
+        <v>49.23</v>
       </c>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C09483-845B-4C34-83AE-E5A3859E01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0613F1CD-3F1D-4159-814E-950926E3CCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -859,14 +859,16 @@
       <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5">
+        <v>2.8</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6">
         <v>5</v>
       </c>
       <c r="N8" s="7">
         <f>SUM(D8:M8)</f>
-        <v>36.799999999999997</v>
+        <v>39.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.8">
@@ -900,14 +902,16 @@
       <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6">
         <v>5</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
-        <v>60.5</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.8">
@@ -941,14 +945,16 @@
       <c r="J10" s="5">
         <v>5</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <v>4.7</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6">
         <v>5</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="0"/>
-        <v>49.650000000000006</v>
+        <v>54.350000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.8">
@@ -982,14 +988,16 @@
       <c r="J11" s="5">
         <v>5</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>7.1</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6">
         <v>5</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="0"/>
-        <v>52.1</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.8">
@@ -1023,14 +1031,16 @@
       <c r="J12" s="5">
         <v>5</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5">
+        <v>3.4</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6">
         <v>5</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="0"/>
-        <v>47.1</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.8">
@@ -1047,12 +1057,15 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8">
+        <f>AVERAGE(K8:K12)</f>
+        <v>5.2399999999999993</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8">
         <f>AVERAGE(N8:N12)</f>
-        <v>49.23</v>
+        <v>54.470000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0613F1CD-3F1D-4159-814E-950926E3CCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28E271F-A8D0-4626-8AE3-397AFA7D4491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -108,6 +108,30 @@
   </si>
   <si>
     <t>LAB (5)</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Z-Score</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -117,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -131,6 +155,21 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,27 +179,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -180,111 +204,38 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -292,59 +243,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -673,142 +615,175 @@
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="15" max="16" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="9" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="O5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -817,265 +792,331 @@
       <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A8" s="2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5">
-        <v>5</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="16">
+        <v>5</v>
+      </c>
+      <c r="J8" s="16">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
         <v>2.8</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="L8" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>39.599999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A9" s="2">
+        <v>46.849999999999994</v>
+      </c>
+      <c r="O8" s="9">
+        <f>AVERAGE(N8:N12)</f>
+        <v>69.56</v>
+      </c>
+      <c r="P8" s="12">
+        <f>_xlfn.STDEV.P(N8:N12)</f>
+        <v>13.785622945663343</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>(N8-O8)/P8</f>
+        <v>-1.6473684279275953</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>20.8</v>
       </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6">
-        <v>5</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="L9" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A10" s="2">
+        <v>89.800000000000011</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="2">
+        <f>(N9-O8)/P8</f>
+        <v>1.4681962563300102</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
         <v>6.85</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>12.8</v>
       </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>5</v>
-      </c>
-      <c r="J10" s="5">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="16">
+        <v>5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
         <v>4.7</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="L10" s="2">
+        <v>16.05</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="0"/>
-        <v>54.350000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A11" s="2">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="2">
+        <f>(N10-O8)/P8</f>
+        <v>6.0933046211324754E-2</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
         <v>7.5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>14.6</v>
       </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>5</v>
+      </c>
+      <c r="J11" s="16">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
         <v>7.1</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="L11" s="2">
+        <v>14.55</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A12" s="2">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>73.75</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="2">
+        <f>(N11-O8)/P8</f>
+        <v>0.30393983764934474</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>5.6</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>12.5</v>
       </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
         <v>3.4</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="L12" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <f>AVERAGE(F8:F12)</f>
-        <v>6.75</v>
-      </c>
-      <c r="G13" s="8">
-        <f>AVERAGE(G8:G12)</f>
-        <v>14.080000000000002</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
-        <f>AVERAGE(K8:K12)</f>
-        <v>5.2399999999999993</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8">
-        <f>AVERAGE(N8:N12)</f>
-        <v>54.470000000000006</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="2">
+        <f>(N12-O8)/P8</f>
+        <v>-0.18570071226308438</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="M14" s="5"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="M15" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="O8:O12"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
     <mergeCell ref="N5:N7"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28E271F-A8D0-4626-8AE3-397AFA7D4491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2800AF-5E70-4F3B-80F0-BD7299E4A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>F</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,35 +258,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,181 +599,183 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
@@ -801,27 +806,27 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
-        <v>0</v>
+      <c r="E8" s="17">
+        <v>4</v>
       </c>
       <c r="F8" s="2">
         <v>4.0999999999999996</v>
@@ -832,10 +837,10 @@
       <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="16">
-        <v>5</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
         <v>5</v>
       </c>
       <c r="K8" s="2">
@@ -849,32 +854,32 @@
       </c>
       <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>46.849999999999994</v>
-      </c>
-      <c r="O8" s="9">
+        <v>50.849999999999994</v>
+      </c>
+      <c r="O8" s="10">
         <f>AVERAGE(N8:N12)</f>
-        <v>69.56</v>
-      </c>
-      <c r="P8" s="12">
+        <v>70.56</v>
+      </c>
+      <c r="P8" s="13">
         <f>_xlfn.STDEV.P(N8:N12)</f>
-        <v>13.785622945663343</v>
+        <v>12.453248572159783</v>
       </c>
       <c r="Q8" s="2">
         <f>(N8-O8)/P8</f>
-        <v>-1.6473684279275953</v>
+        <v>-1.5827195519138086</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2">
@@ -892,10 +897,10 @@
       <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="16">
-        <v>5</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
         <v>5</v>
       </c>
       <c r="K9" s="2">
@@ -911,24 +916,24 @@
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
         <v>89.800000000000011</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="13"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="2">
         <f>(N9-O8)/P8</f>
-        <v>1.4681962563300102</v>
+        <v>1.5449783956784211</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2">
@@ -946,10 +951,10 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="16">
-        <v>5</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
         <v>5</v>
       </c>
       <c r="K10" s="2">
@@ -965,24 +970,24 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="13"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="2">
         <f>(N10-O8)/P8</f>
-        <v>6.0933046211324754E-2</v>
+        <v>-1.2848053186514656E-2</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2">
@@ -1000,10 +1005,10 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="16">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9">
         <v>5</v>
       </c>
       <c r="K11" s="2">
@@ -1019,31 +1024,31 @@
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="13"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="2">
         <f>(N11-O8)/P8</f>
-        <v>0.30393983764934474</v>
+        <v>0.25615806040614125</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <v>5.6</v>
@@ -1054,10 +1059,10 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="16">
-        <v>5</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9">
         <v>5</v>
       </c>
       <c r="K12" s="2">
@@ -1071,19 +1076,19 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="2">
         <f>(N12-O8)/P8</f>
-        <v>-0.18570071226308438</v>
+        <v>-0.20556885098423905</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1096,12 +1101,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M14" s="5"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="M15" s="8"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="M15" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2800AF-5E70-4F3B-80F0-BD7299E4A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE2C4D-B64A-4D41-977E-B32D5555F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -123,15 +145,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -179,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,30 +222,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -243,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,10 +245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -271,26 +256,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,7 +578,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -625,157 +604,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
@@ -806,11 +785,11 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
@@ -819,13 +798,13 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="9">
         <v>4</v>
       </c>
       <c r="F8" s="2">
@@ -837,10 +816,10 @@
       <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="9">
-        <v>5</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
         <v>5</v>
       </c>
       <c r="K8" s="2">
@@ -856,20 +835,39 @@
         <f>SUM(D8:M8)</f>
         <v>50.849999999999994</v>
       </c>
-      <c r="O8" s="10">
-        <f>AVERAGE(N8:N12)</f>
+      <c r="O8" s="12">
         <v>70.56</v>
       </c>
       <c r="P8" s="13">
-        <f>_xlfn.STDEV.P(N8:N12)</f>
-        <v>12.453248572159783</v>
+        <v>12.452999999999999</v>
       </c>
       <c r="Q8" s="2">
         <f>(N8-O8)/P8</f>
-        <v>-1.5827195519138086</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>32</v>
+        <v>-1.5827511443025783</v>
+      </c>
+      <c r="R8" s="4" t="str" cm="1">
+        <f t="array" ref="R8">_xlfn.LET(
+ _xlpm.s, N8,
+ _xlpm.mean, O8,
+ _xlpm.sd, P8,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>D</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -879,7 +877,7 @@
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2">
@@ -897,10 +895,10 @@
       <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="9">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="7">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
         <v>5</v>
       </c>
       <c r="K9" s="2">
@@ -916,14 +914,39 @@
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
         <v>89.800000000000011</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="14"/>
+      <c r="O9" s="12">
+        <v>70.56</v>
+      </c>
+      <c r="P9" s="13">
+        <v>12.452999999999999</v>
+      </c>
       <c r="Q9" s="2">
-        <f>(N9-O8)/P8</f>
-        <v>1.5449783956784211</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>31</v>
+        <f t="shared" ref="Q9:Q12" si="1">(N9-O9)/P9</f>
+        <v>1.5450092347225577</v>
+      </c>
+      <c r="R9" s="4" t="str" cm="1">
+        <f t="array" ref="R9">_xlfn.LET(
+ _xlpm.s, N9,
+ _xlpm.mean, O9,
+ _xlpm.sd, P9,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>A</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -933,7 +956,7 @@
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2">
@@ -951,10 +974,10 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
         <v>5</v>
       </c>
       <c r="K10" s="2">
@@ -970,11 +993,15 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="14"/>
+      <c r="O10" s="12">
+        <v>70.56</v>
+      </c>
+      <c r="P10" s="13">
+        <v>12.452999999999999</v>
+      </c>
       <c r="Q10" s="2">
-        <f>(N10-O8)/P8</f>
-        <v>-1.2848053186514656E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.2848309644262153E-2</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>29</v>
@@ -987,7 +1014,7 @@
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2">
@@ -1005,10 +1032,10 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="9">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
         <v>5</v>
       </c>
       <c r="K11" s="2">
@@ -1024,14 +1051,39 @@
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="14"/>
+      <c r="O11" s="12">
+        <v>70.56</v>
+      </c>
+      <c r="P11" s="13">
+        <v>12.452999999999999</v>
+      </c>
       <c r="Q11" s="2">
-        <f>(N11-O8)/P8</f>
-        <v>0.25615806040614125</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>0.25616317353248197</v>
+      </c>
+      <c r="R11" s="4" t="str" cm="1">
+        <f t="array" ref="R11">_xlfn.LET(
+ _xlpm.s, N11,
+ _xlpm.mean, O11,
+ _xlpm.sd, P11,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1041,7 +1093,7 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2">
@@ -1059,10 +1111,10 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="9">
-        <v>5</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
         <v>5</v>
       </c>
       <c r="K12" s="2">
@@ -1078,14 +1130,39 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="15"/>
+      <c r="O12" s="12">
+        <v>70.56</v>
+      </c>
+      <c r="P12" s="13">
+        <v>12.452999999999999</v>
+      </c>
       <c r="Q12" s="2">
-        <f>(N12-O8)/P8</f>
-        <v>-0.20556885098423905</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>-0.20557295430819902</v>
+      </c>
+      <c r="R12" s="4" t="str" cm="1">
+        <f t="array" ref="R12">_xlfn.LET(
+ _xlpm.s, N12,
+ _xlpm.mean, O12,
+ _xlpm.sd, P12,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1098,21 +1175,29 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="M13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="8">
+        <f>AVERAGE(N3:N12)</f>
+        <v>70.56</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="2">
+        <f>_xlfn.STDEV.P(N3:N12)</f>
+        <v>12.453248572159783</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="M15" s="7"/>
+      <c r="M15" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="16">
-    <mergeCell ref="O8:O12"/>
-    <mergeCell ref="P8:P12"/>
+  <mergeCells count="14">
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE2C4D-B64A-4D41-977E-B32D5555F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEBF43-67D0-4B3F-9B73-8E653ECF6F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,6 +267,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,183 +578,183 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7109375" style="1"/>
+    <col min="19" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
@@ -785,13 +785,13 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="9">
         <v>4</v>
@@ -833,17 +833,17 @@
       </c>
       <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>50.849999999999994</v>
-      </c>
-      <c r="O8" s="12">
+        <v>51.849999999999994</v>
+      </c>
+      <c r="O8" s="11">
         <v>70.56</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>12.452999999999999</v>
       </c>
       <c r="Q8" s="2">
         <f>(N8-O8)/P8</f>
-        <v>-1.5827511443025783</v>
+        <v>-1.5024492090259383</v>
       </c>
       <c r="R8" s="4" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.LET(
@@ -870,7 +870,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -914,10 +914,10 @@
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
         <v>89.800000000000011</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>70.56</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>12.452999999999999</v>
       </c>
       <c r="Q9" s="2">
@@ -949,7 +949,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -993,10 +993,10 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>70.56</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <v>12.452999999999999</v>
       </c>
       <c r="Q10" s="2">
@@ -1007,7 +1007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1051,10 +1051,10 @@
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>70.56</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <v>12.452999999999999</v>
       </c>
       <c r="Q11" s="2">
@@ -1086,7 +1086,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1130,10 +1130,10 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>70.56</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <v>12.452999999999999</v>
       </c>
       <c r="Q12" s="2">
@@ -1165,7 +1165,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.8">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1175,24 +1175,24 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="N13" s="8">
         <f>AVERAGE(N3:N12)</f>
-        <v>70.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>70.760000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.8">
       <c r="M14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="2">
         <f>_xlfn.STDEV.P(N3:N12)</f>
-        <v>12.453248572159783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>12.139168011029422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.8">
       <c r="M15" s="5"/>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE2C4D-B64A-4D41-977E-B32D5555F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5F1A01-B673-4D6F-A384-77712EAFC7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,14 +171,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
@@ -232,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,26 +242,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +567,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -604,157 +593,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
@@ -785,11 +774,11 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
@@ -801,51 +790,51 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>4</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8">
         <v>2.8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="8">
         <v>7.25</v>
       </c>
-      <c r="M8" s="2">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="8">
         <f>SUM(D8:M8)</f>
         <v>50.849999999999994</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>70.56</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="10">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="8">
         <f>(N8-O8)/P8</f>
         <v>-1.5827511443025783</v>
       </c>
-      <c r="R8" s="4" t="str" cm="1">
+      <c r="R8" s="12" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.LET(
  _xlpm.s, N8,
  _xlpm.mean, O8,
@@ -880,51 +869,51 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>20.8</v>
       </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="K9" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="8">
         <v>21.1</v>
       </c>
-      <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9" s="8">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
         <v>89.800000000000011</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>70.56</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="10">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="8">
         <f t="shared" ref="Q9:Q12" si="1">(N9-O9)/P9</f>
         <v>1.5450092347225577</v>
       </c>
-      <c r="R9" s="4" t="str" cm="1">
+      <c r="R9" s="12" t="str" cm="1">
         <f t="array" ref="R9">_xlfn.LET(
  _xlpm.s, N9,
  _xlpm.mean, O9,
@@ -959,51 +948,51 @@
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8">
         <v>6.85</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="8">
         <v>12.8</v>
       </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>5</v>
+      </c>
+      <c r="K10" s="8">
         <v>4.7</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="8">
         <v>16.05</v>
       </c>
-      <c r="M10" s="2">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10" s="8">
+        <v>5</v>
+      </c>
+      <c r="N10" s="8">
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>70.56</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="10">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="8">
         <f t="shared" si="1"/>
         <v>-1.2848309644262153E-2</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1017,51 +1006,51 @@
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8">
         <v>7.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <v>14.6</v>
       </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5</v>
-      </c>
-      <c r="J11" s="7">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8">
         <v>7.1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="8">
         <v>14.55</v>
       </c>
-      <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="M11" s="8">
+        <v>5</v>
+      </c>
+      <c r="N11" s="8">
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <v>70.56</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="10">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="8">
         <f t="shared" si="1"/>
         <v>0.25616317353248197</v>
       </c>
-      <c r="R11" s="4" t="str" cm="1">
+      <c r="R11" s="12" t="str" cm="1">
         <f t="array" ref="R11">_xlfn.LET(
  _xlpm.s, N11,
  _xlpm.mean, O11,
@@ -1096,51 +1085,51 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8">
         <v>5.6</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="8">
         <v>12.5</v>
       </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5</v>
+      </c>
+      <c r="K12" s="8">
         <v>3.4</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="8">
         <v>16.5</v>
       </c>
-      <c r="M12" s="2">
-        <v>5</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12" s="8">
+        <v>5</v>
+      </c>
+      <c r="N12" s="8">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="10">
         <v>70.56</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="8">
         <f t="shared" si="1"/>
         <v>-0.20557295430819902</v>
       </c>
-      <c r="R12" s="4" t="str" cm="1">
+      <c r="R12" s="12" t="str" cm="1">
         <f t="array" ref="R12">_xlfn.LET(
  _xlpm.s, N12,
  _xlpm.mean, O12,
@@ -1175,10 +1164,10 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f>AVERAGE(N3:N12)</f>
         <v>70.56</v>
       </c>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEBF43-67D0-4B3F-9B73-8E653ECF6F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAF8D31-0519-43C6-8A53-A47AE18CAB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,14 +171,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
@@ -232,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -247,12 +239,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,14 +248,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,183 +567,183 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
@@ -785,35 +774,35 @@
       <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A8" s="4">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>4</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="7">
@@ -822,30 +811,30 @@
       <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="7">
         <v>2.8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="7">
         <v>7.25</v>
       </c>
-      <c r="M8" s="2">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
         <f>SUM(D8:M8)</f>
         <v>51.849999999999994</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>70.56</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="9">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="7">
         <f>(N8-O8)/P8</f>
         <v>-1.5024492090259383</v>
       </c>
-      <c r="R8" s="4" t="str" cm="1">
+      <c r="R8" s="11" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.LET(
  _xlpm.s, N8,
  _xlpm.mean, O8,
@@ -870,29 +859,29 @@
         <v>D</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A9" s="4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>20.8</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>5</v>
       </c>
       <c r="I9" s="7">
@@ -901,30 +890,30 @@
       <c r="J9" s="7">
         <v>5</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="7">
         <v>21.1</v>
       </c>
-      <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
         <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
         <v>89.800000000000011</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="9">
         <v>70.56</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="9">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="7">
         <f t="shared" ref="Q9:Q12" si="1">(N9-O9)/P9</f>
         <v>1.5450092347225577</v>
       </c>
-      <c r="R9" s="4" t="str" cm="1">
+      <c r="R9" s="11" t="str" cm="1">
         <f t="array" ref="R9">_xlfn.LET(
  _xlpm.s, N9,
  _xlpm.mean, O9,
@@ -949,29 +938,29 @@
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A10" s="4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
         <v>6.85</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>12.8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
@@ -980,56 +969,56 @@
       <c r="J10" s="7">
         <v>5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>4.7</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="7">
         <v>16.05</v>
       </c>
-      <c r="M10" s="2">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="9">
         <v>70.56</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="9">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="7">
         <f t="shared" si="1"/>
         <v>-1.2848309644262153E-2</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A11" s="4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11" s="7">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
         <v>7.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="7">
         <v>14.6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
@@ -1038,30 +1027,30 @@
       <c r="J11" s="7">
         <v>5</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="7">
         <v>7.1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="7">
         <v>14.55</v>
       </c>
-      <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="9">
         <v>70.56</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="9">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="7">
         <f t="shared" si="1"/>
         <v>0.25616317353248197</v>
       </c>
-      <c r="R11" s="4" t="str" cm="1">
+      <c r="R11" s="11" t="str" cm="1">
         <f t="array" ref="R11">_xlfn.LET(
  _xlpm.s, N11,
  _xlpm.mean, O11,
@@ -1086,29 +1075,29 @@
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
         <v>5.6</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="7">
         <v>12.5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="7">
         <v>5</v>
       </c>
       <c r="I12" s="7">
@@ -1117,30 +1106,30 @@
       <c r="J12" s="7">
         <v>5</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="7">
         <v>3.4</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="7">
         <v>16.5</v>
       </c>
-      <c r="M12" s="2">
-        <v>5</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="9">
         <v>70.56</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="9">
         <v>12.452999999999999</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="7">
         <f t="shared" si="1"/>
         <v>-0.20557295430819902</v>
       </c>
-      <c r="R12" s="4" t="str" cm="1">
+      <c r="R12" s="11" t="str" cm="1">
         <f t="array" ref="R12">_xlfn.LET(
  _xlpm.s, N12,
  _xlpm.mean, O12,
@@ -1165,7 +1154,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1175,15 +1164,15 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="6">
         <f>AVERAGE(N3:N12)</f>
         <v>70.760000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1181,7 @@
         <v>12.139168011029422</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M15" s="5"/>
     </row>
   </sheetData>
